--- a/Code/Results/Cases/Case_6_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_50/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9971168342533345</v>
+        <v>0.9955085603719667</v>
       </c>
       <c r="D2">
-        <v>1.01775388818741</v>
+        <v>1.016969903679871</v>
       </c>
       <c r="E2">
-        <v>1.003524049840981</v>
+        <v>1.002511009806565</v>
       </c>
       <c r="F2">
-        <v>1.017662539889051</v>
+        <v>1.016692325598681</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041648656580335</v>
+        <v>1.041663444407096</v>
       </c>
       <c r="J2">
-        <v>1.019384123616317</v>
+        <v>1.017824444575106</v>
       </c>
       <c r="K2">
-        <v>1.028971302369641</v>
+        <v>1.02819777680105</v>
       </c>
       <c r="L2">
-        <v>1.014934506414802</v>
+        <v>1.013935472772629</v>
       </c>
       <c r="M2">
-        <v>1.02888117168429</v>
+        <v>1.027923906674833</v>
       </c>
       <c r="N2">
-        <v>1.020831765996838</v>
+        <v>1.019269872032494</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004145348018699</v>
+        <v>1.00024035702554</v>
       </c>
       <c r="D3">
-        <v>1.02322664361903</v>
+        <v>1.02057108929737</v>
       </c>
       <c r="E3">
-        <v>1.009346843622523</v>
+        <v>1.006302303568783</v>
       </c>
       <c r="F3">
-        <v>1.02401484372406</v>
+        <v>1.02104012717725</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043513872385363</v>
+        <v>1.042719162057987</v>
       </c>
       <c r="J3">
-        <v>1.024523641046134</v>
+        <v>1.020724471809987</v>
       </c>
       <c r="K3">
-        <v>1.03357071632247</v>
+        <v>1.030947354876768</v>
       </c>
       <c r="L3">
-        <v>1.019861510576757</v>
+        <v>1.016855175375991</v>
       </c>
       <c r="M3">
-        <v>1.034349401092673</v>
+        <v>1.031410691554703</v>
       </c>
       <c r="N3">
-        <v>1.025978582130924</v>
+        <v>1.022174017638691</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008565224102692</v>
+        <v>1.003238975470018</v>
       </c>
       <c r="D4">
-        <v>1.026670476118765</v>
+        <v>1.022855224496259</v>
       </c>
       <c r="E4">
-        <v>1.013014868437091</v>
+        <v>1.008711167683478</v>
       </c>
       <c r="F4">
-        <v>1.028015591218866</v>
+        <v>1.023800379098719</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04467425727458</v>
+        <v>1.043377198912646</v>
       </c>
       <c r="J4">
-        <v>1.027752339581291</v>
+        <v>1.022560189254265</v>
       </c>
       <c r="K4">
-        <v>1.036457325076557</v>
+        <v>1.032685415870948</v>
       </c>
       <c r="L4">
-        <v>1.022958712750115</v>
+        <v>1.018705581334862</v>
       </c>
       <c r="M4">
-        <v>1.037787253770363</v>
+        <v>1.033619796105573</v>
       </c>
       <c r="N4">
-        <v>1.029211865788338</v>
+        <v>1.024012342012299</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01039430876111</v>
+        <v>1.004485030784507</v>
       </c>
       <c r="D5">
-        <v>1.028096083742637</v>
+        <v>1.023804798767944</v>
       </c>
       <c r="E5">
-        <v>1.014534251228112</v>
+        <v>1.009713606552962</v>
       </c>
       <c r="F5">
-        <v>1.02967259693669</v>
+        <v>1.024948526846194</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04515138380905</v>
+        <v>1.043647959752197</v>
       </c>
       <c r="J5">
-        <v>1.029087621621399</v>
+        <v>1.023322471394686</v>
       </c>
       <c r="K5">
-        <v>1.037650433972088</v>
+        <v>1.033406548499354</v>
       </c>
       <c r="L5">
-        <v>1.024240086206899</v>
+        <v>1.019474497705947</v>
       </c>
       <c r="M5">
-        <v>1.03920965561761</v>
+        <v>1.034537595800382</v>
       </c>
       <c r="N5">
-        <v>1.030549044082102</v>
+        <v>1.024775706680795</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010699762537083</v>
+        <v>1.004693410646349</v>
       </c>
       <c r="D6">
-        <v>1.028334180449141</v>
+        <v>1.023963620372238</v>
       </c>
       <c r="E6">
-        <v>1.014788067445935</v>
+        <v>1.009881329987002</v>
       </c>
       <c r="F6">
-        <v>1.029949391750284</v>
+        <v>1.025140599294316</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045230880241389</v>
+        <v>1.043693080579056</v>
       </c>
       <c r="J6">
-        <v>1.029310559051235</v>
+        <v>1.02344991636247</v>
       </c>
       <c r="K6">
-        <v>1.037849592609587</v>
+        <v>1.033527078122181</v>
       </c>
       <c r="L6">
-        <v>1.024454050778092</v>
+        <v>1.019603083255699</v>
       </c>
       <c r="M6">
-        <v>1.0394471745469</v>
+        <v>1.034691068978481</v>
       </c>
       <c r="N6">
-        <v>1.030772298108659</v>
+        <v>1.02490333263505</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008589776442838</v>
+        <v>1.003255681828562</v>
       </c>
       <c r="D7">
-        <v>1.026689610864495</v>
+        <v>1.02286795424787</v>
       </c>
       <c r="E7">
-        <v>1.013035257981902</v>
+        <v>1.008724602107772</v>
       </c>
       <c r="F7">
-        <v>1.028037828394274</v>
+        <v>1.02381576831706</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044680674144692</v>
+        <v>1.043380839764246</v>
       </c>
       <c r="J7">
-        <v>1.027770266936165</v>
+        <v>1.02257041164823</v>
       </c>
       <c r="K7">
-        <v>1.036473346419637</v>
+        <v>1.03269508882294</v>
       </c>
       <c r="L7">
-        <v>1.022975914467803</v>
+        <v>1.018715890583452</v>
       </c>
       <c r="M7">
-        <v>1.037806348350474</v>
+        <v>1.033632102182663</v>
       </c>
       <c r="N7">
-        <v>1.029229818602112</v>
+        <v>1.024022578923236</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9995196836230485</v>
+        <v>0.9971211191159183</v>
       </c>
       <c r="D8">
-        <v>1.01962431454644</v>
+        <v>1.018196699504842</v>
       </c>
       <c r="E8">
-        <v>1.005513298960172</v>
+        <v>1.00380170911491</v>
       </c>
       <c r="F8">
-        <v>1.019832864284177</v>
+        <v>1.018172946470705</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042288926958366</v>
+        <v>1.042025501423148</v>
       </c>
       <c r="J8">
-        <v>1.021141828017136</v>
+        <v>1.018813162456572</v>
       </c>
       <c r="K8">
-        <v>1.030544864681284</v>
+        <v>1.029135699667189</v>
       </c>
       <c r="L8">
-        <v>1.016619103441581</v>
+        <v>1.014930428919939</v>
       </c>
       <c r="M8">
-        <v>1.030750724599662</v>
+        <v>1.029112254157055</v>
       </c>
       <c r="N8">
-        <v>1.022591966539524</v>
+        <v>1.020259994006764</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9824760789917698</v>
+        <v>0.9858007456672861</v>
       </c>
       <c r="D9">
-        <v>1.006372117907312</v>
+        <v>1.009595666109214</v>
       </c>
       <c r="E9">
-        <v>0.991434936545973</v>
+        <v>0.9947695648667997</v>
       </c>
       <c r="F9">
-        <v>1.004469283005878</v>
+        <v>1.007802122089208</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037696174781923</v>
+        <v>1.039439047061968</v>
       </c>
       <c r="J9">
-        <v>1.00866319875832</v>
+        <v>1.011865076364709</v>
       </c>
       <c r="K9">
-        <v>1.019362651053617</v>
+        <v>1.022534955356421</v>
       </c>
       <c r="L9">
-        <v>1.004668521463848</v>
+        <v>1.007948076099832</v>
       </c>
       <c r="M9">
-        <v>1.0174902630048</v>
+        <v>1.020769870999929</v>
       </c>
       <c r="N9">
-        <v>1.010095616195843</v>
+        <v>1.013302040835693</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9702748131057349</v>
+        <v>0.9778707399970478</v>
       </c>
       <c r="D10">
-        <v>0.9969103607938228</v>
+        <v>1.003588043697221</v>
       </c>
       <c r="E10">
-        <v>0.9814019933663432</v>
+        <v>0.9884815704722593</v>
       </c>
       <c r="F10">
-        <v>0.9935155614188409</v>
+        <v>1.000569539932996</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034346096666339</v>
+        <v>1.037572431539806</v>
       </c>
       <c r="J10">
-        <v>0.999719532040222</v>
+        <v>1.006990716022429</v>
       </c>
       <c r="K10">
-        <v>1.011335624606504</v>
+        <v>1.017892815700684</v>
       </c>
       <c r="L10">
-        <v>0.9961153606233363</v>
+        <v>1.003061955327344</v>
       </c>
       <c r="M10">
-        <v>1.008002889795178</v>
+        <v>1.014928518768994</v>
       </c>
       <c r="N10">
-        <v>1.001139248445152</v>
+        <v>1.00842075834263</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9647599432574626</v>
+        <v>0.974336385496444</v>
       </c>
       <c r="D11">
-        <v>0.9926419761460034</v>
+        <v>1.00091571443739</v>
       </c>
       <c r="E11">
-        <v>0.9768798761392385</v>
+        <v>0.9856892058392047</v>
       </c>
       <c r="F11">
-        <v>0.9885772260159795</v>
+        <v>0.9973545727737348</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032818321948857</v>
+        <v>1.036728203790123</v>
       </c>
       <c r="J11">
-        <v>0.9956759615073011</v>
+        <v>1.004817194310326</v>
       </c>
       <c r="K11">
-        <v>1.007704000966204</v>
+        <v>1.015820382362405</v>
       </c>
       <c r="L11">
-        <v>0.9922513844504375</v>
+        <v>1.000886144962785</v>
       </c>
       <c r="M11">
-        <v>1.003717822753246</v>
+        <v>1.012326551012007</v>
       </c>
       <c r="N11">
-        <v>0.9970899355782707</v>
+        <v>1.00624414998039</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9626734792180086</v>
+        <v>0.9730075549003977</v>
       </c>
       <c r="D12">
-        <v>0.9910285536300626</v>
+        <v>0.999911868064322</v>
       </c>
       <c r="E12">
-        <v>0.9751710899206673</v>
+        <v>0.9846409508295989</v>
       </c>
       <c r="F12">
-        <v>0.9867109784071</v>
+        <v>0.9961471900233463</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032238387738761</v>
+        <v>1.036409011653954</v>
       </c>
       <c r="J12">
-        <v>0.9941461040784529</v>
+        <v>1.003999904410649</v>
       </c>
       <c r="K12">
-        <v>1.006329674686366</v>
+        <v>1.015040756737719</v>
       </c>
       <c r="L12">
-        <v>0.9907899497020832</v>
+        <v>1.000068442693255</v>
       </c>
       <c r="M12">
-        <v>1.002097281836402</v>
+        <v>1.011348577920711</v>
       </c>
       <c r="N12">
-        <v>0.9955579055763962</v>
+        <v>1.00542569943531</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.96312280791379</v>
+        <v>0.9732933334087839</v>
       </c>
       <c r="D13">
-        <v>0.9913759415958647</v>
+        <v>1.000127713854567</v>
       </c>
       <c r="E13">
-        <v>0.9755389869222649</v>
+        <v>0.9848663148415886</v>
       </c>
       <c r="F13">
-        <v>0.987112784770434</v>
+        <v>0.9964067868635657</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032363363914105</v>
+        <v>1.036477736681978</v>
       </c>
       <c r="J13">
-        <v>0.994475564631244</v>
+        <v>1.00417567440082</v>
       </c>
       <c r="K13">
-        <v>1.006625654949953</v>
+        <v>1.015208441788427</v>
       </c>
       <c r="L13">
-        <v>0.9911046534582068</v>
+        <v>1.000244281047982</v>
       </c>
       <c r="M13">
-        <v>1.002446239879069</v>
+        <v>1.011558885948991</v>
       </c>
       <c r="N13">
-        <v>0.9958878340009621</v>
+        <v>1.005601719039029</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9645882704919142</v>
+        <v>0.9742268760589228</v>
       </c>
       <c r="D14">
-        <v>0.9925091941109465</v>
+        <v>1.00083296852776</v>
       </c>
       <c r="E14">
-        <v>0.9767392350407318</v>
+        <v>0.9856027856369013</v>
       </c>
       <c r="F14">
-        <v>0.9884236288580879</v>
+        <v>0.9972550436510836</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032770643721409</v>
+        <v>1.036701934910244</v>
       </c>
       <c r="J14">
-        <v>0.9955500858733074</v>
+        <v>1.004749842801594</v>
       </c>
       <c r="K14">
-        <v>1.007590928661958</v>
+        <v>1.015756141623837</v>
       </c>
       <c r="L14">
-        <v>0.9921311288591975</v>
+        <v>1.000818750336905</v>
       </c>
       <c r="M14">
-        <v>1.003584471628521</v>
+        <v>1.012245949244448</v>
       </c>
       <c r="N14">
-        <v>0.9969638811864385</v>
+        <v>1.00617670282479</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9654860531917255</v>
+        <v>0.9747999124771429</v>
       </c>
       <c r="D15">
-        <v>0.993203653621534</v>
+        <v>1.001265994490693</v>
       </c>
       <c r="E15">
-        <v>0.9774748199133625</v>
+        <v>0.9860550675879802</v>
       </c>
       <c r="F15">
-        <v>0.9892269693673167</v>
+        <v>0.9977759116619779</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033019905024038</v>
+        <v>1.036839321319718</v>
       </c>
       <c r="J15">
-        <v>0.9962083664794538</v>
+        <v>1.005102273287726</v>
       </c>
       <c r="K15">
-        <v>1.008182239862882</v>
+        <v>1.016092280364409</v>
       </c>
       <c r="L15">
-        <v>0.9927600382199512</v>
+        <v>1.001171424733963</v>
       </c>
       <c r="M15">
-        <v>1.004281874214315</v>
+        <v>1.012667731644016</v>
       </c>
       <c r="N15">
-        <v>0.9976230966265514</v>
+        <v>1.006529633802637</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9706356726886631</v>
+        <v>0.9781031085554167</v>
       </c>
       <c r="D16">
-        <v>0.9971898462515535</v>
+        <v>1.003763854907508</v>
       </c>
       <c r="E16">
-        <v>0.9816981705878363</v>
+        <v>0.9886653745374246</v>
       </c>
       <c r="F16">
-        <v>0.9938389738022617</v>
+        <v>1.000781094985233</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03444579335542</v>
+        <v>1.037627685198273</v>
       </c>
       <c r="J16">
-        <v>0.9999841064177507</v>
+        <v>1.007133598719415</v>
       </c>
       <c r="K16">
-        <v>1.011573197390143</v>
+        <v>1.018029003707397</v>
       </c>
       <c r="L16">
-        <v>0.996368248363624</v>
+        <v>1.003205050361191</v>
       </c>
       <c r="M16">
-        <v>1.00828335788786</v>
+        <v>1.015099624504938</v>
       </c>
       <c r="N16">
-        <v>1.001404198548644</v>
+        <v>1.008563843949435</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9738017417203614</v>
+        <v>0.9801475664898557</v>
       </c>
       <c r="D17">
-        <v>0.9996429191680423</v>
+        <v>1.005311308506858</v>
       </c>
       <c r="E17">
-        <v>0.984298189100635</v>
+        <v>0.9902837101514615</v>
       </c>
       <c r="F17">
-        <v>0.9966779426643705</v>
+        <v>1.00264341075043</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03531898160434</v>
+        <v>1.038112435041947</v>
       </c>
       <c r="J17">
-        <v>1.002305288323832</v>
+        <v>1.008390616921167</v>
       </c>
       <c r="K17">
-        <v>1.0136572122028</v>
+        <v>1.019226847752221</v>
       </c>
       <c r="L17">
-        <v>0.9985872454414992</v>
+        <v>1.004464273241776</v>
       </c>
       <c r="M17">
-        <v>1.010744471385416</v>
+        <v>1.016605249607511</v>
       </c>
       <c r="N17">
-        <v>1.003728676799275</v>
+        <v>1.009822647261216</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9756263417891655</v>
+        <v>0.9813304209590189</v>
       </c>
       <c r="D18">
-        <v>1.001057381577946</v>
+        <v>1.006207102370162</v>
       </c>
       <c r="E18">
-        <v>0.9857977557601907</v>
+        <v>0.991220982212516</v>
       </c>
       <c r="F18">
-        <v>0.9983152118419999</v>
+        <v>1.003721689114987</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035820914910046</v>
+        <v>1.038391725302285</v>
       </c>
       <c r="J18">
-        <v>1.003642868106809</v>
+        <v>1.009117781768005</v>
       </c>
       <c r="K18">
-        <v>1.014857888165724</v>
+        <v>1.019919546443549</v>
       </c>
       <c r="L18">
-        <v>0.9998662258887209</v>
+        <v>1.005192993363569</v>
       </c>
       <c r="M18">
-        <v>1.012163090433369</v>
+        <v>1.017476489104198</v>
       </c>
       <c r="N18">
-        <v>1.005068156098967</v>
+        <v>1.010550844765543</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9762448229594251</v>
+        <v>0.9817321343035612</v>
       </c>
       <c r="D19">
-        <v>1.0015369622481</v>
+        <v>1.006511406231453</v>
       </c>
       <c r="E19">
-        <v>0.9863062562387559</v>
+        <v>0.9915394525873448</v>
       </c>
       <c r="F19">
-        <v>0.9988703880080557</v>
+        <v>1.004088021239838</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035990833355303</v>
+        <v>1.038486375805171</v>
       </c>
       <c r="J19">
-        <v>1.004096242095718</v>
+        <v>1.009364717506991</v>
       </c>
       <c r="K19">
-        <v>1.015264817061069</v>
+        <v>1.020154737426345</v>
       </c>
       <c r="L19">
-        <v>1.000299785367827</v>
+        <v>1.005440504615521</v>
       </c>
       <c r="M19">
-        <v>1.012644000259765</v>
+        <v>1.017772394489615</v>
       </c>
       <c r="N19">
-        <v>1.005522173930943</v>
+        <v>1.010798131181602</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.973464361705084</v>
+        <v>0.9799292192295996</v>
       </c>
       <c r="D20">
-        <v>0.9993814363544832</v>
+        <v>1.005145989648479</v>
       </c>
       <c r="E20">
-        <v>0.9840210042102273</v>
+        <v>0.9901107726648753</v>
       </c>
       <c r="F20">
-        <v>0.9963752952884958</v>
+        <v>1.00244443208583</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03522606625547</v>
+        <v>1.038060784882945</v>
       </c>
       <c r="J20">
-        <v>1.002057951364543</v>
+        <v>1.008256378232558</v>
       </c>
       <c r="K20">
-        <v>1.013435171185518</v>
+        <v>1.019098952564212</v>
       </c>
       <c r="L20">
-        <v>0.9983507672428894</v>
+        <v>1.004329770040028</v>
       </c>
       <c r="M20">
-        <v>1.010482181610875</v>
+        <v>1.016444434853998</v>
       </c>
       <c r="N20">
-        <v>1.003480988593134</v>
+        <v>1.009688217938271</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9641578048259682</v>
+        <v>0.9739524206352506</v>
       </c>
       <c r="D21">
-        <v>0.9921762702334838</v>
+        <v>1.000625603138896</v>
       </c>
       <c r="E21">
-        <v>0.9763866147749775</v>
+        <v>0.985386223200969</v>
       </c>
       <c r="F21">
-        <v>0.9880385217399562</v>
+        <v>0.9970056234430206</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032651061072857</v>
+        <v>1.036636070652281</v>
       </c>
       <c r="J21">
-        <v>0.9952344553863236</v>
+        <v>1.004581043293926</v>
       </c>
       <c r="K21">
-        <v>1.007307397173925</v>
+        <v>1.015595132962577</v>
       </c>
       <c r="L21">
-        <v>0.9918295982024615</v>
+        <v>1.000649850001311</v>
       </c>
       <c r="M21">
-        <v>1.003250107653018</v>
+        <v>1.012043948139632</v>
       </c>
       <c r="N21">
-        <v>0.9966478024679599</v>
+        <v>1.006007663602459</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9580846821307814</v>
+        <v>0.9701014229147238</v>
       </c>
       <c r="D22">
-        <v>0.9874830632614252</v>
+        <v>0.9977182099902738</v>
       </c>
       <c r="E22">
-        <v>0.9714169888561602</v>
+        <v>0.9823514784147193</v>
       </c>
       <c r="F22">
-        <v>0.982610601245858</v>
+        <v>0.9935092692711204</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030959513548495</v>
+        <v>1.035707735875367</v>
       </c>
       <c r="J22">
-        <v>0.9907815514629895</v>
+        <v>1.002212389244919</v>
       </c>
       <c r="K22">
-        <v>1.003306629165374</v>
+        <v>1.013335005516286</v>
       </c>
       <c r="L22">
-        <v>0.9875767726226173</v>
+        <v>0.9982808550351112</v>
       </c>
       <c r="M22">
-        <v>0.9985345998862791</v>
+        <v>1.009210414811823</v>
       </c>
       <c r="N22">
-        <v>0.9921885749102993</v>
+        <v>1.003635645793014</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9613263513915054</v>
+        <v>0.9721520569567242</v>
       </c>
       <c r="D23">
-        <v>0.9899872840728053</v>
+        <v>0.9992658559587015</v>
       </c>
       <c r="E23">
-        <v>0.9740684222151946</v>
+        <v>0.9839665495873624</v>
       </c>
       <c r="F23">
-        <v>0.9855066497160178</v>
+        <v>0.9953702754593607</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031863425150122</v>
+        <v>1.036203022167038</v>
       </c>
       <c r="J23">
-        <v>0.9931583572082699</v>
+        <v>1.003473714818962</v>
       </c>
       <c r="K23">
-        <v>1.005442260191378</v>
+        <v>1.01453872136081</v>
       </c>
       <c r="L23">
-        <v>0.9898465157969335</v>
+        <v>0.9995421144759599</v>
       </c>
       <c r="M23">
-        <v>1.001051183483051</v>
+        <v>1.010719056898127</v>
       </c>
       <c r="N23">
-        <v>0.9945687559923614</v>
+        <v>1.004898762594049</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9736168773151695</v>
+        <v>0.9800279106926408</v>
       </c>
       <c r="D24">
-        <v>0.9994996396183293</v>
+        <v>1.005220711127775</v>
       </c>
       <c r="E24">
-        <v>0.9841463044300058</v>
+        <v>0.9901889362584737</v>
       </c>
       <c r="F24">
-        <v>0.9965121060631642</v>
+        <v>1.002534366585825</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035268073453098</v>
+        <v>1.038084134032047</v>
       </c>
       <c r="J24">
-        <v>1.002169762578907</v>
+        <v>1.00831705352392</v>
       </c>
       <c r="K24">
-        <v>1.01353554784708</v>
+        <v>1.019156761351472</v>
       </c>
       <c r="L24">
-        <v>0.9984576687601421</v>
+        <v>1.004390564022467</v>
       </c>
       <c r="M24">
-        <v>1.010600751147551</v>
+        <v>1.016517121604532</v>
       </c>
       <c r="N24">
-        <v>1.003592958592247</v>
+        <v>1.009748979395506</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9870200828844846</v>
+        <v>0.9887917664918686</v>
       </c>
       <c r="D25">
-        <v>1.009901654321412</v>
+        <v>1.011865527716954</v>
       </c>
       <c r="E25">
-        <v>0.995181175032949</v>
+        <v>0.9971495432219425</v>
       </c>
       <c r="F25">
-        <v>1.008558334383377</v>
+        <v>1.010536981741887</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038931607443408</v>
+        <v>1.040132088415083</v>
       </c>
       <c r="J25">
-        <v>1.011992310520401</v>
+        <v>1.013702310884764</v>
       </c>
       <c r="K25">
-        <v>1.022348180118931</v>
+        <v>1.024282397322697</v>
       </c>
       <c r="L25">
-        <v>1.007854760502308</v>
+        <v>1.009792270611598</v>
       </c>
       <c r="M25">
-        <v>1.02102523025349</v>
+        <v>1.022973897477833</v>
       </c>
       <c r="N25">
-        <v>1.01342945567848</v>
+        <v>1.0151418844395</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_50/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9955085603719667</v>
+        <v>0.9961104957963143</v>
       </c>
       <c r="D2">
-        <v>1.016969903679871</v>
+        <v>1.019743618414659</v>
       </c>
       <c r="E2">
-        <v>1.002511009806565</v>
+        <v>1.003105987361765</v>
       </c>
       <c r="F2">
-        <v>1.016692325598681</v>
+        <v>1.019006608566162</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041663444407096</v>
+        <v>1.042879919375357</v>
       </c>
       <c r="J2">
-        <v>1.017824444575106</v>
+        <v>1.01840816690365</v>
       </c>
       <c r="K2">
-        <v>1.02819777680105</v>
+        <v>1.030934578717768</v>
       </c>
       <c r="L2">
-        <v>1.013935472772629</v>
+        <v>1.014522219786721</v>
       </c>
       <c r="M2">
-        <v>1.027923906674833</v>
+        <v>1.030207352449774</v>
       </c>
       <c r="N2">
-        <v>1.019269872032494</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010060885311568</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.032943618465778</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.00024035702554</v>
+        <v>0.9998042399595936</v>
       </c>
       <c r="D3">
-        <v>1.02057108929737</v>
+        <v>1.022256374212022</v>
       </c>
       <c r="E3">
-        <v>1.006302303568783</v>
+        <v>1.00599290075789</v>
       </c>
       <c r="F3">
-        <v>1.02104012717725</v>
+        <v>1.0222573447623</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042719162057987</v>
+        <v>1.043481152081428</v>
       </c>
       <c r="J3">
-        <v>1.020724471809987</v>
+        <v>1.020300243014123</v>
       </c>
       <c r="K3">
-        <v>1.030947354876768</v>
+        <v>1.032612185257546</v>
       </c>
       <c r="L3">
-        <v>1.016855175375991</v>
+        <v>1.016549671300397</v>
       </c>
       <c r="M3">
-        <v>1.031410691554703</v>
+        <v>1.032613144052257</v>
       </c>
       <c r="N3">
-        <v>1.022174017638691</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.010702104213236</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.034127165622861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003238975470018</v>
+        <v>1.002154666391511</v>
       </c>
       <c r="D4">
-        <v>1.022855224496259</v>
+        <v>1.023858734000668</v>
       </c>
       <c r="E4">
-        <v>1.008711167683478</v>
+        <v>1.007836054067941</v>
       </c>
       <c r="F4">
-        <v>1.023800379098719</v>
+        <v>1.024331562982848</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043377198912646</v>
+        <v>1.043854103837746</v>
       </c>
       <c r="J4">
-        <v>1.022560189254265</v>
+        <v>1.021503415713672</v>
       </c>
       <c r="K4">
-        <v>1.032685415870948</v>
+        <v>1.033677486590172</v>
       </c>
       <c r="L4">
-        <v>1.018705581334862</v>
+        <v>1.017840815928485</v>
       </c>
       <c r="M4">
-        <v>1.033619796105573</v>
+        <v>1.034144935478085</v>
       </c>
       <c r="N4">
-        <v>1.024012342012299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.011109724113516</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.034881338355917</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.004485030784507</v>
+        <v>1.003136483401753</v>
       </c>
       <c r="D5">
-        <v>1.023804798767944</v>
+        <v>1.024530828996403</v>
       </c>
       <c r="E5">
-        <v>1.009713606552962</v>
+        <v>1.008607738196911</v>
       </c>
       <c r="F5">
-        <v>1.024948526846194</v>
+        <v>1.025200506173665</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043647959752197</v>
+        <v>1.044008874769488</v>
       </c>
       <c r="J5">
-        <v>1.023322471394686</v>
+        <v>1.022007135744867</v>
       </c>
       <c r="K5">
-        <v>1.033406548499354</v>
+        <v>1.034124525027534</v>
       </c>
       <c r="L5">
-        <v>1.019474497705947</v>
+        <v>1.018381351022359</v>
       </c>
       <c r="M5">
-        <v>1.034537595800382</v>
+        <v>1.034786786051059</v>
       </c>
       <c r="N5">
-        <v>1.024775706680795</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.011280563552809</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.035204653724132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004693410646349</v>
+        <v>1.003304348740618</v>
       </c>
       <c r="D6">
-        <v>1.023963620372238</v>
+        <v>1.024648186845509</v>
       </c>
       <c r="E6">
-        <v>1.009881329987002</v>
+        <v>1.008740152949059</v>
       </c>
       <c r="F6">
-        <v>1.025140599294316</v>
+        <v>1.025350571762235</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043693080579056</v>
+        <v>1.044036817303148</v>
       </c>
       <c r="J6">
-        <v>1.02344991636247</v>
+        <v>1.022094886360825</v>
       </c>
       <c r="K6">
-        <v>1.033527078122181</v>
+        <v>1.034204085882503</v>
       </c>
       <c r="L6">
-        <v>1.019603083255699</v>
+        <v>1.018474972806286</v>
       </c>
       <c r="M6">
-        <v>1.034691068978481</v>
+        <v>1.034898728233173</v>
       </c>
       <c r="N6">
-        <v>1.02490333263505</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.011310589634185</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.035269711496488</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003255681828562</v>
+        <v>1.002177362848736</v>
       </c>
       <c r="D7">
-        <v>1.02286795424787</v>
+        <v>1.023880694352472</v>
       </c>
       <c r="E7">
-        <v>1.008724602107772</v>
+        <v>1.007854948014127</v>
       </c>
       <c r="F7">
-        <v>1.02381576831706</v>
+        <v>1.024355443225292</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043380839764246</v>
+        <v>1.043862036444759</v>
       </c>
       <c r="J7">
-        <v>1.02257041164823</v>
+        <v>1.021519464617997</v>
       </c>
       <c r="K7">
-        <v>1.03269508882294</v>
+        <v>1.033696289263244</v>
       </c>
       <c r="L7">
-        <v>1.018715890583452</v>
+        <v>1.017856516282631</v>
       </c>
       <c r="M7">
-        <v>1.033632102182663</v>
+        <v>1.034165638298416</v>
       </c>
       <c r="N7">
-        <v>1.024022578923236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.011115895258334</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.034914877637392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9971211191159183</v>
+        <v>0.9973791464253929</v>
       </c>
       <c r="D8">
-        <v>1.018196699504842</v>
+        <v>1.020613848619156</v>
       </c>
       <c r="E8">
-        <v>1.00380170911491</v>
+        <v>1.004097611925697</v>
       </c>
       <c r="F8">
-        <v>1.018172946470705</v>
+        <v>1.020126594277138</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042025501423148</v>
+        <v>1.043093744961562</v>
       </c>
       <c r="J8">
-        <v>1.018813162456572</v>
+        <v>1.019063648194351</v>
       </c>
       <c r="K8">
-        <v>1.029135699667189</v>
+        <v>1.031521648218893</v>
       </c>
       <c r="L8">
-        <v>1.014930428919939</v>
+        <v>1.015222363069544</v>
       </c>
       <c r="M8">
-        <v>1.029112254157055</v>
+        <v>1.031040668473934</v>
       </c>
       <c r="N8">
-        <v>1.020259994006764</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.01028400819536</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.033381806055267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9858007456672861</v>
+        <v>0.9885915880534586</v>
       </c>
       <c r="D9">
-        <v>1.009595666109214</v>
+        <v>1.014649795945876</v>
       </c>
       <c r="E9">
-        <v>0.9947695648667997</v>
+        <v>0.9972646888542146</v>
       </c>
       <c r="F9">
-        <v>1.007802122089208</v>
+        <v>1.012422451743169</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039439047061968</v>
+        <v>1.041605282369697</v>
       </c>
       <c r="J9">
-        <v>1.011865076364709</v>
+        <v>1.014553740206448</v>
       </c>
       <c r="K9">
-        <v>1.022534955356421</v>
+        <v>1.027509579220803</v>
       </c>
       <c r="L9">
-        <v>1.007948076099832</v>
+        <v>1.010402301013197</v>
       </c>
       <c r="M9">
-        <v>1.020769870999929</v>
+        <v>1.02531714795186</v>
       </c>
       <c r="N9">
-        <v>1.013302040835693</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.008754133724585</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.030541761581376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9778707399970478</v>
+        <v>0.9825036855708695</v>
       </c>
       <c r="D10">
-        <v>1.003588043697221</v>
+        <v>1.010542920621613</v>
       </c>
       <c r="E10">
-        <v>0.9884815704722593</v>
+        <v>0.9925677117596056</v>
       </c>
       <c r="F10">
-        <v>1.000569539932996</v>
+        <v>1.007120576368423</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037572431539806</v>
+        <v>1.040527530905474</v>
       </c>
       <c r="J10">
-        <v>1.006990716022429</v>
+        <v>1.01142909725582</v>
       </c>
       <c r="K10">
-        <v>1.017892815700684</v>
+        <v>1.024724393239034</v>
       </c>
       <c r="L10">
-        <v>1.003061955327344</v>
+        <v>1.007072467745875</v>
       </c>
       <c r="M10">
-        <v>1.014928518768994</v>
+        <v>1.021362445852739</v>
       </c>
       <c r="N10">
-        <v>1.00842075834263</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.007694038325451</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.028589385604354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.974336385496444</v>
+        <v>0.9798201236527379</v>
       </c>
       <c r="D11">
-        <v>1.00091571443739</v>
+        <v>1.00874642265673</v>
       </c>
       <c r="E11">
-        <v>0.9856892058392047</v>
+        <v>0.9905080637936965</v>
       </c>
       <c r="F11">
-        <v>0.9973545727737348</v>
+        <v>1.004796769830674</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036728203790123</v>
+        <v>1.040046744822308</v>
       </c>
       <c r="J11">
-        <v>1.004817194310326</v>
+        <v>1.010057191689</v>
       </c>
       <c r="K11">
-        <v>1.015820382362405</v>
+        <v>1.023505257961246</v>
       </c>
       <c r="L11">
-        <v>1.000886144962785</v>
+        <v>1.005611231936662</v>
       </c>
       <c r="M11">
-        <v>1.012326551012007</v>
+        <v>1.019628789518281</v>
       </c>
       <c r="N11">
-        <v>1.00624414998039</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.007229660181224</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.027760543281478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9730075549003977</v>
+        <v>0.97880715721045</v>
       </c>
       <c r="D12">
-        <v>0.999911868064322</v>
+        <v>1.008064940497623</v>
       </c>
       <c r="E12">
-        <v>0.9846409508295989</v>
+        <v>0.9897311412982865</v>
       </c>
       <c r="F12">
-        <v>0.9961471900233463</v>
+        <v>1.003918381638579</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036409011653954</v>
+        <v>1.039860829367198</v>
       </c>
       <c r="J12">
-        <v>1.003999904410649</v>
+        <v>1.009536328914453</v>
       </c>
       <c r="K12">
-        <v>1.015040756737719</v>
+        <v>1.023039243074494</v>
       </c>
       <c r="L12">
-        <v>1.000068442693255</v>
+        <v>1.005057756727211</v>
       </c>
       <c r="M12">
-        <v>1.011348577920711</v>
+        <v>1.018970894708096</v>
       </c>
       <c r="N12">
-        <v>1.00542569943531</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007052734225545</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.027431049523751</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9732933334087839</v>
+        <v>0.9790235299707539</v>
       </c>
       <c r="D13">
-        <v>1.000127713854567</v>
+        <v>1.008209618213298</v>
       </c>
       <c r="E13">
-        <v>0.9848663148415886</v>
+        <v>0.9898968502289591</v>
       </c>
       <c r="F13">
-        <v>0.9964067868635657</v>
+        <v>1.004105443221949</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036477736681978</v>
+        <v>1.039900059369207</v>
       </c>
       <c r="J13">
-        <v>1.00417567440082</v>
+        <v>1.009646991265002</v>
       </c>
       <c r="K13">
-        <v>1.015208441788427</v>
+        <v>1.023137695604915</v>
       </c>
       <c r="L13">
-        <v>1.000244281047982</v>
+        <v>1.005175510329169</v>
       </c>
       <c r="M13">
-        <v>1.011558885948991</v>
+        <v>1.019110638719253</v>
       </c>
       <c r="N13">
-        <v>1.005601719039029</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.007090202565225</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.02749814188483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9742268760589228</v>
+        <v>0.9797360124547876</v>
       </c>
       <c r="D14">
-        <v>1.00083296852776</v>
+        <v>1.008689455005008</v>
       </c>
       <c r="E14">
-        <v>0.9856027856369013</v>
+        <v>0.9904434467928608</v>
       </c>
       <c r="F14">
-        <v>0.9972550436510836</v>
+        <v>1.004723590285623</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036701934910244</v>
+        <v>1.040031103194043</v>
       </c>
       <c r="J14">
-        <v>1.004749842801594</v>
+        <v>1.010013687722622</v>
       </c>
       <c r="K14">
-        <v>1.015756141623837</v>
+        <v>1.023466096993014</v>
       </c>
       <c r="L14">
-        <v>1.000818750336905</v>
+        <v>1.005565073215989</v>
       </c>
       <c r="M14">
-        <v>1.012245949244448</v>
+        <v>1.01957382573948</v>
       </c>
       <c r="N14">
-        <v>1.00617670282479</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.00721483125638</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.027731776022745</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9747999124771429</v>
+        <v>0.9801763991909186</v>
       </c>
       <c r="D15">
-        <v>1.001265994490693</v>
+        <v>1.008987852893634</v>
       </c>
       <c r="E15">
-        <v>0.9860550675879802</v>
+        <v>0.990781843264028</v>
       </c>
       <c r="F15">
-        <v>0.9977759116619779</v>
+        <v>1.005106850148425</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036839321319718</v>
+        <v>1.040112991499178</v>
       </c>
       <c r="J15">
-        <v>1.005102273287726</v>
+        <v>1.010241526915213</v>
       </c>
       <c r="K15">
-        <v>1.016092280364409</v>
+        <v>1.02367124173375</v>
       </c>
       <c r="L15">
-        <v>1.001171424733963</v>
+        <v>1.005806812215914</v>
       </c>
       <c r="M15">
-        <v>1.012667731644016</v>
+        <v>1.019861701163282</v>
       </c>
       <c r="N15">
-        <v>1.006529633802637</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.007292504877602</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.027882753466603</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9781031085554167</v>
+        <v>0.9827033930748972</v>
       </c>
       <c r="D16">
-        <v>1.003763854907508</v>
+        <v>1.01069136771198</v>
       </c>
       <c r="E16">
-        <v>0.9886653745374246</v>
+        <v>0.9927242098076385</v>
       </c>
       <c r="F16">
-        <v>1.000781094985233</v>
+        <v>1.007302409602158</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037627685198273</v>
+        <v>1.040572665289008</v>
       </c>
       <c r="J16">
-        <v>1.007133598719415</v>
+        <v>1.011541433326611</v>
       </c>
       <c r="K16">
-        <v>1.018029003707397</v>
+        <v>1.024834113766198</v>
       </c>
       <c r="L16">
-        <v>1.003205050361191</v>
+        <v>1.007189017220438</v>
       </c>
       <c r="M16">
-        <v>1.015099624504938</v>
+        <v>1.021504762623776</v>
       </c>
       <c r="N16">
-        <v>1.008563843949435</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.007734116909152</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.028708157623672</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9801475664898557</v>
+        <v>0.9842720467404986</v>
       </c>
       <c r="D17">
-        <v>1.005311308506858</v>
+        <v>1.011750450639245</v>
       </c>
       <c r="E17">
-        <v>0.9902837101514615</v>
+        <v>0.993932404545379</v>
       </c>
       <c r="F17">
-        <v>1.00264341075043</v>
+        <v>1.008667639393828</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038112435041947</v>
+        <v>1.04085512891877</v>
       </c>
       <c r="J17">
-        <v>1.008390616921167</v>
+        <v>1.012348338680024</v>
       </c>
       <c r="K17">
-        <v>1.019226847752221</v>
+        <v>1.025555541630171</v>
       </c>
       <c r="L17">
-        <v>1.004464273241776</v>
+        <v>1.00804766371418</v>
       </c>
       <c r="M17">
-        <v>1.016605249607511</v>
+        <v>1.022525381321918</v>
       </c>
       <c r="N17">
-        <v>1.009822647261216</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.008008214752838</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.029220853716019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9813304209590189</v>
+        <v>0.9851741942603898</v>
       </c>
       <c r="D18">
-        <v>1.006207102370162</v>
+        <v>1.012355613311673</v>
       </c>
       <c r="E18">
-        <v>0.991220982212516</v>
+        <v>0.9946272067090725</v>
       </c>
       <c r="F18">
-        <v>1.003721689114987</v>
+        <v>1.009450942415701</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038391725302285</v>
+        <v>1.041013578313176</v>
       </c>
       <c r="J18">
-        <v>1.009117781768005</v>
+        <v>1.012809244982253</v>
       </c>
       <c r="K18">
-        <v>1.019919546443549</v>
+        <v>1.025964427338271</v>
       </c>
       <c r="L18">
-        <v>1.005192993363569</v>
+        <v>1.008539330543355</v>
       </c>
       <c r="M18">
-        <v>1.017476489104198</v>
+        <v>1.023108510294106</v>
       </c>
       <c r="N18">
-        <v>1.010550844765543</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.008164152960779</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.029498207324466</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9817321343035612</v>
+        <v>0.9854862619584389</v>
       </c>
       <c r="D19">
-        <v>1.006511406231453</v>
+        <v>1.01256852749102</v>
       </c>
       <c r="E19">
-        <v>0.9915394525873448</v>
+        <v>0.9948683981903274</v>
       </c>
       <c r="F19">
-        <v>1.004088021239838</v>
+        <v>1.009724108369841</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038486375805171</v>
+        <v>1.041070506583148</v>
       </c>
       <c r="J19">
-        <v>1.009364717506991</v>
+        <v>1.012971113200807</v>
       </c>
       <c r="K19">
-        <v>1.020154737426345</v>
+        <v>1.026110382723598</v>
       </c>
       <c r="L19">
-        <v>1.005440504615521</v>
+        <v>1.008711279016151</v>
       </c>
       <c r="M19">
-        <v>1.017772394489615</v>
+        <v>1.023313421209523</v>
       </c>
       <c r="N19">
-        <v>1.010798131181602</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.008219398489548</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.029607856546104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9799292192295996</v>
+        <v>0.9841038010272725</v>
       </c>
       <c r="D20">
-        <v>1.005145989648479</v>
+        <v>1.011636452375871</v>
       </c>
       <c r="E20">
-        <v>0.9901107726648753</v>
+        <v>0.9938026586803989</v>
       </c>
       <c r="F20">
-        <v>1.00244443208583</v>
+        <v>1.008520919844885</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038060784882945</v>
+        <v>1.040824713181442</v>
       </c>
       <c r="J20">
-        <v>1.008256378232558</v>
+        <v>1.012261552429566</v>
       </c>
       <c r="K20">
-        <v>1.019098952564212</v>
+        <v>1.025477728973583</v>
       </c>
       <c r="L20">
-        <v>1.004329770040028</v>
+        <v>1.007955363286253</v>
       </c>
       <c r="M20">
-        <v>1.016444434853998</v>
+        <v>1.022415575827138</v>
       </c>
       <c r="N20">
-        <v>1.009688217938271</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.007978687219206</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.029164488491409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9739524206352506</v>
+        <v>0.9795340303764394</v>
       </c>
       <c r="D21">
-        <v>1.000625603138896</v>
+        <v>1.008558139940976</v>
       </c>
       <c r="E21">
-        <v>0.985386223200969</v>
+        <v>0.9902894539199847</v>
       </c>
       <c r="F21">
-        <v>0.9970056234430206</v>
+        <v>1.004551136651319</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036636070652281</v>
+        <v>1.039997105080454</v>
       </c>
       <c r="J21">
-        <v>1.004581043293926</v>
+        <v>1.00991306613412</v>
       </c>
       <c r="K21">
-        <v>1.015595132962577</v>
+        <v>1.023379169646516</v>
       </c>
       <c r="L21">
-        <v>1.000649850001311</v>
+        <v>1.005457160872567</v>
       </c>
       <c r="M21">
-        <v>1.012043948139632</v>
+        <v>1.019446796310688</v>
       </c>
       <c r="N21">
-        <v>1.006007663602459</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.007181314636232</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.027683962568773</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9701014229147238</v>
+        <v>0.976596194441148</v>
       </c>
       <c r="D22">
-        <v>0.9977182099902738</v>
+        <v>1.006578746912657</v>
       </c>
       <c r="E22">
-        <v>0.9823514784147193</v>
+        <v>0.9880379387047412</v>
       </c>
       <c r="F22">
-        <v>0.9935092692711204</v>
+        <v>1.002003358472466</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035707735875367</v>
+        <v>1.039451758397495</v>
       </c>
       <c r="J22">
-        <v>1.002212389244919</v>
+        <v>1.008399115930578</v>
       </c>
       <c r="K22">
-        <v>1.013335005516286</v>
+        <v>1.022020994474567</v>
       </c>
       <c r="L22">
-        <v>0.9982808550351112</v>
+        <v>1.003850150183859</v>
       </c>
       <c r="M22">
-        <v>1.009210414811823</v>
+        <v>1.017535232635118</v>
       </c>
       <c r="N22">
-        <v>1.003635645793014</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.006666343687458</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.026710020212275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9721520569567242</v>
+        <v>0.9781499154725967</v>
       </c>
       <c r="D23">
-        <v>0.9992658559587015</v>
+        <v>1.007619366906539</v>
       </c>
       <c r="E23">
-        <v>0.9839665495873624</v>
+        <v>0.9892266780627883</v>
       </c>
       <c r="F23">
-        <v>0.9953702754593607</v>
+        <v>1.003346652647492</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036203022167038</v>
+        <v>1.039737334272768</v>
       </c>
       <c r="J23">
-        <v>1.003473714818962</v>
+        <v>1.009195788558879</v>
       </c>
       <c r="K23">
-        <v>1.01453872136081</v>
+        <v>1.022732028545605</v>
       </c>
       <c r="L23">
-        <v>0.9995421144759599</v>
+        <v>1.00469678179801</v>
       </c>
       <c r="M23">
-        <v>1.010719056898127</v>
+        <v>1.018540820171538</v>
       </c>
       <c r="N23">
-        <v>1.004898762594049</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.006936522075319</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.027203030205979</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9800279106926408</v>
+        <v>0.9841650431035643</v>
       </c>
       <c r="D24">
-        <v>1.005220711127775</v>
+        <v>1.011668561651371</v>
       </c>
       <c r="E24">
-        <v>0.9901889362584737</v>
+        <v>0.9938479824927043</v>
       </c>
       <c r="F24">
-        <v>1.002534366585825</v>
+        <v>1.008568744899955</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038084134032047</v>
+        <v>1.040829602281459</v>
       </c>
       <c r="J24">
-        <v>1.00831705352392</v>
+        <v>1.01228657380956</v>
       </c>
       <c r="K24">
-        <v>1.019156761351472</v>
+        <v>1.025493816733676</v>
       </c>
       <c r="L24">
-        <v>1.004390564022467</v>
+        <v>1.007984002713101</v>
       </c>
       <c r="M24">
-        <v>1.016517121604532</v>
+        <v>1.022447036397877</v>
       </c>
       <c r="N24">
-        <v>1.009748979395506</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.007985906047345</v>
+      </c>
+      <c r="Q24">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R24">
+        <v>1.029148209575124</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9887917664918686</v>
+        <v>0.9909182530748115</v>
       </c>
       <c r="D25">
-        <v>1.011865527716954</v>
+        <v>1.01623510083501</v>
       </c>
       <c r="E25">
-        <v>0.9971495432219425</v>
+        <v>0.9990695785906001</v>
       </c>
       <c r="F25">
-        <v>1.010536981741887</v>
+        <v>1.014462417248459</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040132088415083</v>
+        <v>1.042014509342467</v>
       </c>
       <c r="J25">
-        <v>1.013702310884764</v>
+        <v>1.015755167909443</v>
       </c>
       <c r="K25">
-        <v>1.024282397322697</v>
+        <v>1.028586509095605</v>
       </c>
       <c r="L25">
-        <v>1.009792270611598</v>
+        <v>1.011682355344186</v>
       </c>
       <c r="M25">
-        <v>1.022973897477833</v>
+        <v>1.026840295897056</v>
       </c>
       <c r="N25">
-        <v>1.0151418844395</v>
+        <v>1.009163069715956</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.031332050221622</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_50/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_50/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9961104957963143</v>
+        <v>0.9964249842265152</v>
       </c>
       <c r="D2">
-        <v>1.019743618414659</v>
+        <v>1.019740453115891</v>
       </c>
       <c r="E2">
-        <v>1.003105987361765</v>
+        <v>1.003382299623521</v>
       </c>
       <c r="F2">
-        <v>1.019006608566162</v>
+        <v>1.019075498073504</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.042879919375357</v>
+        <v>1.042887063707016</v>
       </c>
       <c r="J2">
-        <v>1.01840816690365</v>
+        <v>1.018713151731518</v>
       </c>
       <c r="K2">
-        <v>1.030934578717768</v>
+        <v>1.030931455399438</v>
       </c>
       <c r="L2">
-        <v>1.014522219786721</v>
+        <v>1.014794713904895</v>
       </c>
       <c r="M2">
-        <v>1.030207352449774</v>
+        <v>1.030275326717473</v>
       </c>
       <c r="N2">
-        <v>1.010060885311568</v>
+        <v>1.012174223042603</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.032943618465778</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.03295024914448</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020334928699016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9998042399595936</v>
+        <v>0.9999737371501906</v>
       </c>
       <c r="D3">
-        <v>1.022256374212022</v>
+        <v>1.022070345537465</v>
       </c>
       <c r="E3">
-        <v>1.00599290075789</v>
+        <v>1.006143318489106</v>
       </c>
       <c r="F3">
-        <v>1.0222573447623</v>
+        <v>1.022149685599213</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.043481152081428</v>
+        <v>1.043411494076713</v>
       </c>
       <c r="J3">
-        <v>1.020300243014123</v>
+        <v>1.020465118143009</v>
       </c>
       <c r="K3">
-        <v>1.032612185257546</v>
+        <v>1.032428410324694</v>
       </c>
       <c r="L3">
-        <v>1.016549671300397</v>
+        <v>1.016698193268207</v>
       </c>
       <c r="M3">
-        <v>1.032613144052257</v>
+        <v>1.032506789055144</v>
       </c>
       <c r="N3">
-        <v>1.010702104213236</v>
+        <v>1.012646412579395</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.034127165622861</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.034005779267194</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.0206350383483</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.002154666391511</v>
+        <v>1.00223295696801</v>
       </c>
       <c r="D4">
-        <v>1.023858734000668</v>
+        <v>1.023557042948619</v>
       </c>
       <c r="E4">
-        <v>1.007836054067941</v>
+        <v>1.007907151149798</v>
       </c>
       <c r="F4">
-        <v>1.024331562982848</v>
+        <v>1.024112459857552</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.043854103837746</v>
+        <v>1.043735807414675</v>
       </c>
       <c r="J4">
-        <v>1.021503415713672</v>
+        <v>1.021579715439547</v>
       </c>
       <c r="K4">
-        <v>1.033677486590172</v>
+        <v>1.033379231539925</v>
       </c>
       <c r="L4">
-        <v>1.017840815928485</v>
+        <v>1.017911071457336</v>
       </c>
       <c r="M4">
-        <v>1.034144935478085</v>
+        <v>1.033928324660439</v>
       </c>
       <c r="N4">
-        <v>1.011109724113516</v>
+        <v>1.012946759525323</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.034881338355917</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.034679083971108</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020823327997867</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003136483401753</v>
+        <v>1.003176920329262</v>
       </c>
       <c r="D5">
-        <v>1.024530828996403</v>
+        <v>1.024181038005272</v>
       </c>
       <c r="E5">
-        <v>1.008607738196911</v>
+        <v>1.008645886590596</v>
       </c>
       <c r="F5">
-        <v>1.025200506173665</v>
+        <v>1.024935097301009</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.044008874769488</v>
+        <v>1.043870332155277</v>
       </c>
       <c r="J5">
-        <v>1.022007135744867</v>
+        <v>1.022046575051458</v>
       </c>
       <c r="K5">
-        <v>1.034124525027534</v>
+        <v>1.033778612441212</v>
       </c>
       <c r="L5">
-        <v>1.018381351022359</v>
+        <v>1.018419059991396</v>
       </c>
       <c r="M5">
-        <v>1.034786786051059</v>
+        <v>1.03452431494977</v>
       </c>
       <c r="N5">
-        <v>1.011280563552809</v>
+        <v>1.013072721170903</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.035204653724132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.034969410386463</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020902242794591</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003304348740618</v>
+        <v>1.003338332248915</v>
       </c>
       <c r="D6">
-        <v>1.024648186845509</v>
+        <v>1.024290244244807</v>
       </c>
       <c r="E6">
-        <v>1.008740152949059</v>
+        <v>1.008772681081598</v>
       </c>
       <c r="F6">
-        <v>1.025350571762235</v>
+        <v>1.025077305348707</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.044036817303148</v>
+        <v>1.043894835909533</v>
       </c>
       <c r="J6">
-        <v>1.022094886360825</v>
+        <v>1.022128035762268</v>
       </c>
       <c r="K6">
-        <v>1.034204085882503</v>
+        <v>1.033850093993714</v>
       </c>
       <c r="L6">
-        <v>1.018474972806286</v>
+        <v>1.018507127983292</v>
       </c>
       <c r="M6">
-        <v>1.034898728233173</v>
+        <v>1.034628472554592</v>
       </c>
       <c r="N6">
-        <v>1.011310589634185</v>
+        <v>1.013094910694155</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.035269711496488</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.03502962289832</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020916811106127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.002177362848736</v>
+        <v>1.002262361540661</v>
       </c>
       <c r="D7">
-        <v>1.023880694352472</v>
+        <v>1.023583418191713</v>
       </c>
       <c r="E7">
-        <v>1.007854948014127</v>
+        <v>1.007932039974448</v>
       </c>
       <c r="F7">
-        <v>1.024355443225292</v>
+        <v>1.024141397116427</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.043862036444759</v>
+        <v>1.043745701893765</v>
       </c>
       <c r="J7">
-        <v>1.021519464617997</v>
+        <v>1.021602302821386</v>
       </c>
       <c r="K7">
-        <v>1.033696289263244</v>
+        <v>1.033402397494548</v>
       </c>
       <c r="L7">
-        <v>1.017856516282631</v>
+        <v>1.017932696085708</v>
       </c>
       <c r="M7">
-        <v>1.034165638298416</v>
+        <v>1.033954026005536</v>
       </c>
       <c r="N7">
-        <v>1.011115895258334</v>
+        <v>1.012979302367206</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.034914877637392</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.034717704651246</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020829701577039</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9973791464253929</v>
+        <v>0.9976669535376504</v>
       </c>
       <c r="D8">
-        <v>1.020613848619156</v>
+        <v>1.020564538750141</v>
       </c>
       <c r="E8">
-        <v>1.004097611925697</v>
+        <v>1.004351345473699</v>
       </c>
       <c r="F8">
-        <v>1.020126594277138</v>
+        <v>1.020153389206696</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.043093744961562</v>
+        <v>1.043081901245476</v>
       </c>
       <c r="J8">
-        <v>1.019063648194351</v>
+        <v>1.019343049650246</v>
       </c>
       <c r="K8">
-        <v>1.031521648218893</v>
+        <v>1.031472972994848</v>
       </c>
       <c r="L8">
-        <v>1.015222363069544</v>
+        <v>1.015472695872081</v>
       </c>
       <c r="M8">
-        <v>1.031040668473934</v>
+        <v>1.031067118158132</v>
       </c>
       <c r="N8">
-        <v>1.01028400819536</v>
+        <v>1.01242342159892</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.033381806055267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.033358489711729</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02044709921489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9885915880534586</v>
+        <v>0.9892345062900151</v>
       </c>
       <c r="D9">
-        <v>1.014649795945876</v>
+        <v>1.015042283737274</v>
       </c>
       <c r="E9">
-        <v>0.9972646888542146</v>
+        <v>0.9978259676132296</v>
       </c>
       <c r="F9">
-        <v>1.012422451743169</v>
+        <v>1.012877674668786</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.041605282369697</v>
+        <v>1.041778714155841</v>
       </c>
       <c r="J9">
-        <v>1.014553740206448</v>
+        <v>1.015173234548122</v>
       </c>
       <c r="K9">
-        <v>1.027509579220803</v>
+        <v>1.027895935189409</v>
       </c>
       <c r="L9">
-        <v>1.010402301013197</v>
+        <v>1.010954415729269</v>
       </c>
       <c r="M9">
-        <v>1.02531714795186</v>
+        <v>1.025765219426619</v>
       </c>
       <c r="N9">
-        <v>1.008754133724585</v>
+        <v>1.011308181114672</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.030541761581376</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.030825776418418</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019715740734081</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9825036855708695</v>
+        <v>0.9834341252997458</v>
       </c>
       <c r="D10">
-        <v>1.010542920621613</v>
+        <v>1.011270822757715</v>
       </c>
       <c r="E10">
-        <v>0.9925677117596056</v>
+        <v>0.9933778675027667</v>
       </c>
       <c r="F10">
-        <v>1.007120576368423</v>
+        <v>1.007906298728608</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.040527530905474</v>
+        <v>1.040841872160017</v>
       </c>
       <c r="J10">
-        <v>1.01142909725582</v>
+        <v>1.012320776721926</v>
       </c>
       <c r="K10">
-        <v>1.024724393239034</v>
+        <v>1.02543951781045</v>
       </c>
       <c r="L10">
-        <v>1.007072467745875</v>
+        <v>1.007867724894614</v>
       </c>
       <c r="M10">
-        <v>1.021362445852739</v>
+        <v>1.022134254889743</v>
       </c>
       <c r="N10">
-        <v>1.007694038325451</v>
+        <v>1.010656107553061</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.028589385604354</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.029107547918656</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019204198541589</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9798201236527379</v>
+        <v>0.9809348902235392</v>
       </c>
       <c r="D11">
-        <v>1.00874642265673</v>
+        <v>1.009664100897298</v>
       </c>
       <c r="E11">
-        <v>0.9905080637936965</v>
+        <v>0.9914791257636543</v>
       </c>
       <c r="F11">
-        <v>1.004796769830674</v>
+        <v>1.005775158946206</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.040046744822308</v>
+        <v>1.040441786601871</v>
       </c>
       <c r="J11">
-        <v>1.010057191689</v>
+        <v>1.011122885565076</v>
       </c>
       <c r="K11">
-        <v>1.023505257961246</v>
+        <v>1.024406039041364</v>
       </c>
       <c r="L11">
-        <v>1.005611231936662</v>
+        <v>1.006563542388149</v>
       </c>
       <c r="M11">
-        <v>1.019628789518281</v>
+        <v>1.020588979892998</v>
       </c>
       <c r="N11">
-        <v>1.007229660181224</v>
+        <v>1.010563195631719</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.027760543281478</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.028413190501727</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018991408576707</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.97880715721045</v>
+        <v>0.9799970519706318</v>
       </c>
       <c r="D12">
-        <v>1.008064940497623</v>
+        <v>1.009058331570822</v>
       </c>
       <c r="E12">
-        <v>0.9897311412982865</v>
+        <v>0.9907679086946677</v>
       </c>
       <c r="F12">
-        <v>1.003918381638579</v>
+        <v>1.004974096763231</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.039860829367198</v>
+        <v>1.040288210193446</v>
       </c>
       <c r="J12">
-        <v>1.009536328914453</v>
+        <v>1.010672779332517</v>
       </c>
       <c r="K12">
-        <v>1.023039243074494</v>
+        <v>1.02401402184976</v>
       </c>
       <c r="L12">
-        <v>1.005057756727211</v>
+        <v>1.006074144433481</v>
       </c>
       <c r="M12">
-        <v>1.018970894708096</v>
+        <v>1.020006617375319</v>
       </c>
       <c r="N12">
-        <v>1.007052734225545</v>
+        <v>1.010543996151723</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.027431049523751</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.028136022871314</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018909849706967</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9790235299707539</v>
+        <v>0.9801971265031496</v>
       </c>
       <c r="D13">
-        <v>1.008209618213298</v>
+        <v>1.009186630254313</v>
       </c>
       <c r="E13">
-        <v>0.9898968502289591</v>
+        <v>0.990919361174928</v>
       </c>
       <c r="F13">
-        <v>1.004105443221949</v>
+        <v>1.005144416852602</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.039900059369207</v>
+        <v>1.040320447263835</v>
       </c>
       <c r="J13">
-        <v>1.009646991265002</v>
+        <v>1.010768101372737</v>
       </c>
       <c r="K13">
-        <v>1.023137695604915</v>
+        <v>1.024096470042601</v>
       </c>
       <c r="L13">
-        <v>1.005175510329169</v>
+        <v>1.006177997997099</v>
       </c>
       <c r="M13">
-        <v>1.019110638719253</v>
+        <v>1.020130012091846</v>
       </c>
       <c r="N13">
-        <v>1.007090202565225</v>
+        <v>1.010547006382869</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.02749814188483</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.028191556355766</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018926840843821</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9797360124547876</v>
+        <v>0.9808569018782652</v>
       </c>
       <c r="D14">
-        <v>1.008689455005008</v>
+        <v>1.009613325694212</v>
       </c>
       <c r="E14">
-        <v>0.9904434467928608</v>
+        <v>0.9914198624627426</v>
       </c>
       <c r="F14">
-        <v>1.004723590285623</v>
+        <v>1.005708297443978</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.040031103194043</v>
+        <v>1.040428790966626</v>
       </c>
       <c r="J14">
-        <v>1.010013687722622</v>
+        <v>1.011085152329808</v>
       </c>
       <c r="K14">
-        <v>1.023466096993014</v>
+        <v>1.024372931859075</v>
       </c>
       <c r="L14">
-        <v>1.005565073215989</v>
+        <v>1.006522606072848</v>
       </c>
       <c r="M14">
-        <v>1.01957382573948</v>
+        <v>1.020540189295123</v>
       </c>
       <c r="N14">
-        <v>1.00721483125638</v>
+        <v>1.010561109172918</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.027731776022745</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.028388600487343</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018984451291303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9801763991909186</v>
+        <v>0.9812654545335371</v>
       </c>
       <c r="D15">
-        <v>1.008987852893634</v>
+        <v>1.009879472121247</v>
       </c>
       <c r="E15">
-        <v>0.990781843264028</v>
+        <v>0.9917304282721536</v>
       </c>
       <c r="F15">
-        <v>1.005106850148425</v>
+        <v>1.006058667744421</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.040112991499178</v>
+        <v>1.040496902353762</v>
       </c>
       <c r="J15">
-        <v>1.010241526915213</v>
+        <v>1.011282980812222</v>
       </c>
       <c r="K15">
-        <v>1.02367124173375</v>
+        <v>1.024546544297565</v>
       </c>
       <c r="L15">
-        <v>1.005806812215914</v>
+        <v>1.00673719451938</v>
       </c>
       <c r="M15">
-        <v>1.019861701163282</v>
+        <v>1.0207959261206</v>
       </c>
       <c r="N15">
-        <v>1.007292504877602</v>
+        <v>1.010572761680676</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.027882753466603</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.028517849792747</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019020950848323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9827033930748972</v>
+        <v>0.9836213419454138</v>
       </c>
       <c r="D16">
-        <v>1.01069136771198</v>
+        <v>1.011406343540253</v>
       </c>
       <c r="E16">
-        <v>0.9927242098076385</v>
+        <v>0.9935234479558728</v>
       </c>
       <c r="F16">
-        <v>1.007302409602158</v>
+        <v>1.008075015739188</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.040572665289008</v>
+        <v>1.040881417170702</v>
       </c>
       <c r="J16">
-        <v>1.011541433326611</v>
+        <v>1.012421286631357</v>
       </c>
       <c r="K16">
-        <v>1.024834113766198</v>
+        <v>1.025536580276197</v>
       </c>
       <c r="L16">
-        <v>1.007189017220438</v>
+        <v>1.007973606660435</v>
       </c>
       <c r="M16">
-        <v>1.021504762623776</v>
+        <v>1.022263733987388</v>
       </c>
       <c r="N16">
-        <v>1.007734116909152</v>
+        <v>1.010672203884695</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.028708157623672</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.029221343932461</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019227046555379</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9842720467404986</v>
+        <v>0.9850953516906783</v>
       </c>
       <c r="D17">
-        <v>1.011750450639245</v>
+        <v>1.012364261702817</v>
       </c>
       <c r="E17">
-        <v>0.993932404545379</v>
+        <v>0.994649228519239</v>
       </c>
       <c r="F17">
-        <v>1.008667639393828</v>
+        <v>1.009338524156984</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.04085512891877</v>
+        <v>1.04112101818973</v>
       </c>
       <c r="J17">
-        <v>1.012348338680024</v>
+        <v>1.013138593161024</v>
       </c>
       <c r="K17">
-        <v>1.025555541630171</v>
+        <v>1.026158918911727</v>
       </c>
       <c r="L17">
-        <v>1.00804766371418</v>
+        <v>1.0087517311303</v>
       </c>
       <c r="M17">
-        <v>1.022525381321918</v>
+        <v>1.023184772751779</v>
       </c>
       <c r="N17">
-        <v>1.008008214752838</v>
+        <v>1.010771240371366</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.029220853716019</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.029664222125976</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.019356625715902</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9851741942603898</v>
+        <v>0.9859475388130744</v>
       </c>
       <c r="D18">
-        <v>1.012355613311673</v>
+        <v>1.012914391733986</v>
       </c>
       <c r="E18">
-        <v>0.9946272067090725</v>
+        <v>0.9953006109160256</v>
       </c>
       <c r="F18">
-        <v>1.009450942415701</v>
+        <v>1.010066901232647</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.041013578313176</v>
+        <v>1.041256247288402</v>
       </c>
       <c r="J18">
-        <v>1.012809244982253</v>
+        <v>1.013552148593696</v>
       </c>
       <c r="K18">
-        <v>1.025964427338271</v>
+        <v>1.026513868187135</v>
       </c>
       <c r="L18">
-        <v>1.008539330543355</v>
+        <v>1.009200957994921</v>
       </c>
       <c r="M18">
-        <v>1.023108510294106</v>
+        <v>1.0237141002556</v>
       </c>
       <c r="N18">
-        <v>1.008164152960779</v>
+        <v>1.010841295083035</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.029498207324466</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.029902304230749</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019429689287874</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9854862619584389</v>
+        <v>0.9862431352663883</v>
       </c>
       <c r="D19">
-        <v>1.01256852749102</v>
+        <v>1.013108925163616</v>
       </c>
       <c r="E19">
-        <v>0.9948683981903274</v>
+        <v>0.9955274957952897</v>
       </c>
       <c r="F19">
-        <v>1.009724108369841</v>
+        <v>1.010321775466652</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.041070506583148</v>
+        <v>1.041305409426237</v>
       </c>
       <c r="J19">
-        <v>1.012971113200807</v>
+        <v>1.013698394666724</v>
       </c>
       <c r="K19">
-        <v>1.026110382723598</v>
+        <v>1.026641802938351</v>
       </c>
       <c r="L19">
-        <v>1.008711279016151</v>
+        <v>1.009358919027363</v>
       </c>
       <c r="M19">
-        <v>1.023313421209523</v>
+        <v>1.02390108797548</v>
       </c>
       <c r="N19">
-        <v>1.008219398489548</v>
+        <v>1.010869437195383</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.029607856546104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.029999831988346</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019456708121904</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9841038010272725</v>
+        <v>0.9849367898667921</v>
       </c>
       <c r="D20">
-        <v>1.011636452375871</v>
+        <v>1.012260767641988</v>
       </c>
       <c r="E20">
-        <v>0.9938026586803989</v>
+        <v>0.9945279077878195</v>
       </c>
       <c r="F20">
-        <v>1.008520919844885</v>
+        <v>1.009202328655336</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.040824713181442</v>
+        <v>1.041095048274442</v>
       </c>
       <c r="J20">
-        <v>1.012261552429566</v>
+        <v>1.013060981569531</v>
       </c>
       <c r="K20">
-        <v>1.025477728973583</v>
+        <v>1.026091398689974</v>
       </c>
       <c r="L20">
-        <v>1.007955363286253</v>
+        <v>1.008667664663365</v>
       </c>
       <c r="M20">
-        <v>1.022415575827138</v>
+        <v>1.023085273451048</v>
       </c>
       <c r="N20">
-        <v>1.007978687219206</v>
+        <v>1.010758967007885</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.029164488491409</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.029615005432449</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019342498484056</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9795340303764394</v>
+        <v>0.9806889913982905</v>
       </c>
       <c r="D21">
-        <v>1.008558139940976</v>
+        <v>1.009511152795378</v>
       </c>
       <c r="E21">
-        <v>0.9902894539199847</v>
+        <v>0.9912960903749571</v>
       </c>
       <c r="F21">
-        <v>1.004551136651319</v>
+        <v>1.005566885094001</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.039997105080454</v>
+        <v>1.040407508254924</v>
       </c>
       <c r="J21">
-        <v>1.00991306613412</v>
+        <v>1.011016889292959</v>
       </c>
       <c r="K21">
-        <v>1.023379169646516</v>
+        <v>1.024314546433601</v>
       </c>
       <c r="L21">
-        <v>1.005457160872567</v>
+        <v>1.006444258792381</v>
       </c>
       <c r="M21">
-        <v>1.019446796310688</v>
+        <v>1.020443553115436</v>
       </c>
       <c r="N21">
-        <v>1.007181314636232</v>
+        <v>1.010625249069645</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.027683962568773</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.028362276930198</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018974487447482</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.976596194441148</v>
+        <v>0.9779582937061296</v>
       </c>
       <c r="D22">
-        <v>1.006578746912657</v>
+        <v>1.007743796156388</v>
       </c>
       <c r="E22">
-        <v>0.9880379387047412</v>
+        <v>0.9892255271144703</v>
       </c>
       <c r="F22">
-        <v>1.002003358472466</v>
+        <v>1.00323498746029</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.039451758397495</v>
+        <v>1.039952673564021</v>
       </c>
       <c r="J22">
-        <v>1.008399115930578</v>
+        <v>1.009697357298498</v>
       </c>
       <c r="K22">
-        <v>1.022020994474567</v>
+        <v>1.023163392158231</v>
       </c>
       <c r="L22">
-        <v>1.003850150183859</v>
+        <v>1.005013493380015</v>
       </c>
       <c r="M22">
-        <v>1.017535232635118</v>
+        <v>1.018742629871032</v>
       </c>
       <c r="N22">
-        <v>1.006666343687458</v>
+        <v>1.010526707642599</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.026710020212275</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.027533418466859</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.018732684234423</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9781499154725967</v>
+        <v>0.9793898117719151</v>
       </c>
       <c r="D23">
-        <v>1.007619366906539</v>
+        <v>1.008662786101397</v>
       </c>
       <c r="E23">
-        <v>0.9892266780627883</v>
+        <v>0.9903072200613842</v>
       </c>
       <c r="F23">
-        <v>1.003346652647492</v>
+        <v>1.004453573899552</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.039737334272768</v>
+        <v>1.040186151413253</v>
       </c>
       <c r="J23">
-        <v>1.009195788558879</v>
+        <v>1.010379277709665</v>
       </c>
       <c r="K23">
-        <v>1.022732028545605</v>
+        <v>1.023755680689638</v>
       </c>
       <c r="L23">
-        <v>1.00469678179801</v>
+        <v>1.00575584212997</v>
       </c>
       <c r="M23">
-        <v>1.018540820171538</v>
+        <v>1.019626538805581</v>
       </c>
       <c r="N23">
-        <v>1.006936522075319</v>
+        <v>1.010533969952756</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.027203030205979</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.027941526095122</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018855379290143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9841650431035643</v>
+        <v>0.9849944167562263</v>
       </c>
       <c r="D24">
-        <v>1.011668561651371</v>
+        <v>1.012288796517242</v>
       </c>
       <c r="E24">
-        <v>0.9938479824927043</v>
+        <v>0.9945701036376424</v>
       </c>
       <c r="F24">
-        <v>1.008568744899955</v>
+        <v>1.009246113119314</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.040829602281459</v>
+        <v>1.041098274327897</v>
       </c>
       <c r="J24">
-        <v>1.01228657380956</v>
+        <v>1.013082586258192</v>
       </c>
       <c r="K24">
-        <v>1.025493816733676</v>
+        <v>1.02610349002697</v>
       </c>
       <c r="L24">
-        <v>1.007984002713101</v>
+        <v>1.008693250094645</v>
       </c>
       <c r="M24">
-        <v>1.022447036397877</v>
+        <v>1.023112779212148</v>
       </c>
       <c r="N24">
-        <v>1.007985906047345</v>
+        <v>1.010759820598184</v>
       </c>
       <c r="Q24">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.029148209575124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.029593233808653</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019343237133024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9909182530748115</v>
+        <v>0.9914566538536632</v>
       </c>
       <c r="D25">
-        <v>1.01623510083501</v>
+        <v>1.016503408796795</v>
       </c>
       <c r="E25">
-        <v>0.9990695785906001</v>
+        <v>0.999540236116366</v>
       </c>
       <c r="F25">
-        <v>1.014462417248459</v>
+        <v>1.014795916416635</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.042014509342467</v>
+        <v>1.042135700644926</v>
       </c>
       <c r="J25">
-        <v>1.015755167909443</v>
+        <v>1.016274996514296</v>
       </c>
       <c r="K25">
-        <v>1.028586509095605</v>
+        <v>1.028850820809934</v>
       </c>
       <c r="L25">
-        <v>1.011682355344186</v>
+        <v>1.012145693522118</v>
       </c>
       <c r="M25">
-        <v>1.026840295897056</v>
+        <v>1.027168806143258</v>
       </c>
       <c r="N25">
-        <v>1.009163069715956</v>
+        <v>1.011573466947639</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.031332050221622</v>
+        <v>1.031532566476665</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019914417672861</v>
       </c>
     </row>
   </sheetData>
